--- a/Computer2/docs/Architecture.xlsx
+++ b/Computer2/docs/Architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Programming\Dev\C++\Computer2\Computer2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D0A76-BE00-43B0-BFCE-770200CF09F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94267FAF-01BC-477F-B569-29156751BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="212">
   <si>
     <t>A</t>
   </si>
@@ -376,6 +376,291 @@
   </si>
   <si>
     <t>sbc n</t>
+  </si>
+  <si>
+    <t>jmp nn</t>
+  </si>
+  <si>
+    <t>call nn</t>
+  </si>
+  <si>
+    <t>call z,nn</t>
+  </si>
+  <si>
+    <t>jmp z,nn</t>
+  </si>
+  <si>
+    <t>jmp c,nn</t>
+  </si>
+  <si>
+    <t>jmp o,nn</t>
+  </si>
+  <si>
+    <t>jmp p,nn</t>
+  </si>
+  <si>
+    <t>jmp s,nn</t>
+  </si>
+  <si>
+    <t>jmp nz,nn</t>
+  </si>
+  <si>
+    <t>jmp nc,nn</t>
+  </si>
+  <si>
+    <t>jmp no,nn</t>
+  </si>
+  <si>
+    <t>jmp np,nn</t>
+  </si>
+  <si>
+    <t>jmp ns,nn</t>
+  </si>
+  <si>
+    <t>call nz,nn</t>
+  </si>
+  <si>
+    <t>call c,nn</t>
+  </si>
+  <si>
+    <t>call nc,nn</t>
+  </si>
+  <si>
+    <t>call o,nn</t>
+  </si>
+  <si>
+    <t>call no,nn</t>
+  </si>
+  <si>
+    <t>call p,nn</t>
+  </si>
+  <si>
+    <t>call np,nn</t>
+  </si>
+  <si>
+    <t>call s,nn</t>
+  </si>
+  <si>
+    <t>call ns,nn</t>
+  </si>
+  <si>
+    <t>ret nn</t>
+  </si>
+  <si>
+    <t>ret z,nn</t>
+  </si>
+  <si>
+    <t>ret nz,nn</t>
+  </si>
+  <si>
+    <t>ret c,nn</t>
+  </si>
+  <si>
+    <t>ret nc,nn</t>
+  </si>
+  <si>
+    <t>ret o,nn</t>
+  </si>
+  <si>
+    <t>ret no,nn</t>
+  </si>
+  <si>
+    <t>ret p,nn</t>
+  </si>
+  <si>
+    <t>ret np,nn</t>
+  </si>
+  <si>
+    <t>ret s,nn</t>
+  </si>
+  <si>
+    <t>ret ns,nn</t>
+  </si>
+  <si>
+    <t>rcl [nn],a</t>
+  </si>
+  <si>
+    <t>rcl [bc],a</t>
+  </si>
+  <si>
+    <t>rcl [de],a</t>
+  </si>
+  <si>
+    <t>rcl [hl],a</t>
+  </si>
+  <si>
+    <t>rcl [nn],b</t>
+  </si>
+  <si>
+    <t>rcl [nn],c</t>
+  </si>
+  <si>
+    <t>rcl [nn],d</t>
+  </si>
+  <si>
+    <t>rcl [nn],e</t>
+  </si>
+  <si>
+    <t>rcl [nn],h</t>
+  </si>
+  <si>
+    <t>rcl [nn],l</t>
+  </si>
+  <si>
+    <t>rcl [bc],b</t>
+  </si>
+  <si>
+    <t>rcl [bc],c</t>
+  </si>
+  <si>
+    <t>rcl [bc],d</t>
+  </si>
+  <si>
+    <t>rcl [bc],e</t>
+  </si>
+  <si>
+    <t>rcl [bc],h</t>
+  </si>
+  <si>
+    <t>rcl [bc],l</t>
+  </si>
+  <si>
+    <t>rcl [de],b</t>
+  </si>
+  <si>
+    <t>rcl [de],c</t>
+  </si>
+  <si>
+    <t>rcl [de],d</t>
+  </si>
+  <si>
+    <t>rcl [de],e</t>
+  </si>
+  <si>
+    <t>rcl [de],h</t>
+  </si>
+  <si>
+    <t>rcl [de],l</t>
+  </si>
+  <si>
+    <t>rcl [hl],b</t>
+  </si>
+  <si>
+    <t>rcl [hl],c</t>
+  </si>
+  <si>
+    <t>rcl [hl],d</t>
+  </si>
+  <si>
+    <t>rcl [hl],e</t>
+  </si>
+  <si>
+    <t>rcl [hl],h</t>
+  </si>
+  <si>
+    <t>rcl [hl],l</t>
+  </si>
+  <si>
+    <t>and a</t>
+  </si>
+  <si>
+    <t>and n</t>
+  </si>
+  <si>
+    <t>and b</t>
+  </si>
+  <si>
+    <t>and c</t>
+  </si>
+  <si>
+    <t>and d</t>
+  </si>
+  <si>
+    <t>and e</t>
+  </si>
+  <si>
+    <t>and h</t>
+  </si>
+  <si>
+    <t>and l</t>
+  </si>
+  <si>
+    <t>xor a</t>
+  </si>
+  <si>
+    <t>xor n</t>
+  </si>
+  <si>
+    <t>xor b</t>
+  </si>
+  <si>
+    <t>xor c</t>
+  </si>
+  <si>
+    <t>xor d</t>
+  </si>
+  <si>
+    <t>xor e</t>
+  </si>
+  <si>
+    <t>xor h</t>
+  </si>
+  <si>
+    <t>xor l</t>
+  </si>
+  <si>
+    <t>or a</t>
+  </si>
+  <si>
+    <t>or n</t>
+  </si>
+  <si>
+    <t>or b</t>
+  </si>
+  <si>
+    <t>or c</t>
+  </si>
+  <si>
+    <t>or d</t>
+  </si>
+  <si>
+    <t>or e</t>
+  </si>
+  <si>
+    <t>or h</t>
+  </si>
+  <si>
+    <t>or l</t>
+  </si>
+  <si>
+    <t>cmp a</t>
+  </si>
+  <si>
+    <t>cmp n</t>
+  </si>
+  <si>
+    <t>cmp b</t>
+  </si>
+  <si>
+    <t>cmp c</t>
+  </si>
+  <si>
+    <t>cmp d</t>
+  </si>
+  <si>
+    <t>cmp e</t>
+  </si>
+  <si>
+    <t>cmp h</t>
+  </si>
+  <si>
+    <t>cmp l</t>
+  </si>
+  <si>
+    <t>cpl</t>
+  </si>
+  <si>
+    <t>neg</t>
   </si>
 </sst>
 </file>
@@ -502,13 +787,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,9 +802,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,7 +819,10 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -825,13 +1108,13 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -886,48 +1169,48 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
       <c r="R2" s="1">
         <v>0</v>
       </c>
@@ -936,36 +1219,36 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="P3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
@@ -974,34 +1257,34 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="N4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="O4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="P4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
       <c r="R4" s="1">
         <v>2</v>
       </c>
@@ -1010,34 +1293,34 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="N5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="O5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="P5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
       <c r="R5" s="1">
         <v>3</v>
       </c>
@@ -1046,32 +1329,34 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="O6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="P6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
       <c r="R6" s="1">
         <v>4</v>
       </c>
@@ -1080,32 +1365,34 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="O7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="P7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
       <c r="R7" s="1">
         <v>5</v>
       </c>
@@ -1114,32 +1401,34 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="O8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="P8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
       <c r="R8" s="1">
         <v>6</v>
       </c>
@@ -1148,30 +1437,32 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="O9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="P9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
       <c r="R9" s="1">
         <v>7</v>
       </c>
@@ -1180,22 +1471,32 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="R10" s="1">
         <v>8</v>
       </c>
@@ -1204,22 +1505,32 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="R11" s="1">
         <v>9</v>
       </c>
@@ -1228,22 +1539,36 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,22 +1577,42 @@
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="R13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,22 +1621,42 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="R14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,22 +1665,42 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="R15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1324,22 +1709,42 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="R16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1348,24 +1753,44 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="R17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1848,7 @@
       <c r="R18" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
@@ -1480,22 +1905,22 @@
       <c r="A21" s="1">
         <v>0</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="3"/>
@@ -1504,10 +1929,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="1">
         <v>0</v>
       </c>
@@ -1516,34 +1941,34 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="1">
         <v>1</v>
       </c>
@@ -1552,34 +1977,34 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="1">
         <v>2</v>
       </c>
@@ -1588,34 +2013,34 @@
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="1">
         <v>3</v>
       </c>
@@ -1624,34 +2049,34 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="1">
         <v>4</v>
       </c>
@@ -1660,34 +2085,34 @@
       <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="1">
         <v>5</v>
       </c>
@@ -1696,34 +2121,34 @@
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="1">
         <v>6</v>
       </c>
@@ -1732,34 +2157,34 @@
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="1">
         <v>7</v>
       </c>
@@ -1768,34 +2193,34 @@
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="1">
         <v>8</v>
       </c>
@@ -1804,34 +2229,34 @@
       <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="1">
         <v>9</v>
       </c>
@@ -1840,22 +2265,34 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,22 +2301,34 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="9"/>
+      <c r="B32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1888,22 +2337,34 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="9"/>
+      <c r="B33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="6"/>
       <c r="R33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1912,22 +2373,34 @@
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="9"/>
+      <c r="B34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1936,22 +2409,22 @@
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="6"/>
       <c r="R35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1960,22 +2433,22 @@
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="1" t="s">
         <v>5</v>
       </c>
